--- a/scripts/PITCH-DISTRIBUTION.xlsx
+++ b/scripts/PITCH-DISTRIBUTION.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasper\Google Drive\MindTech&amp;Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\University\MSc_1\MindTech&amp;Music\project-repo\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B99ADC-7402-45AC-AFA3-197B3D883B42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52EA644-320E-4515-8B07-D767C00605CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74236B08-9CBF-44B4-B13F-946D5CA18EFE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>antecedent</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>normalized</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -397,20 +400,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0E560F-9ED6-4A1A-A9FF-8BCBFB396017}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -418,7 +421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -474,7 +477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -538,7 +541,7 @@
         <v>0.22203440990039236</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -602,7 +605,7 @@
         <v>0.10930650377290693</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -666,7 +669,7 @@
         <v>0.13673279962872723</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -730,7 +733,7 @@
         <v>5.5009219422249539E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -794,7 +797,7 @@
         <v>0.11921912516964192</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -858,7 +861,7 @@
         <v>5.8739255014326641E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -922,7 +925,7 @@
         <v>5.5309734513274332E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -984,6 +987,666 @@
       <c r="S11">
         <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>7</v>
+      </c>
+      <c r="S13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:S14" si="9">ROUND(20*L4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <f>SUM(L14:S14)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15:S15" si="10">ROUND(20*L5,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ref="T15:T26" si="11">SUM(L15:S15)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:S16" si="12">ROUND(20*L6,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:S17" si="13">ROUND(20*L7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:S18" si="14">ROUND(20*L8,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:S19" si="15">ROUND(20*L9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:S20" si="16">ROUND(20*L10,0)</f>
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <f>ROUND(20*L11,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21:S21" si="17">ROUND(20*M11,0)</f>
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="L23" t="str">
+        <f>TEXT(L13,"#")</f>
+        <v>1</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" ref="M23:S23" si="18">TEXT(M13,"#")</f>
+        <v>2</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="18"/>
+        <v>r</v>
+      </c>
+    </row>
+    <row r="24" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="L24" t="str">
+        <f>REPT(L$23,L14)</f>
+        <v>1111</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" ref="M24:S24" si="19">REPT(M$23,M14)</f>
+        <v>222</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="19"/>
+        <v>55</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="19"/>
+        <v>777</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="19"/>
+        <v>rrrr</v>
+      </c>
+    </row>
+    <row r="25" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="L25" t="str">
+        <f t="shared" ref="L25:S25" si="20">REPT(L$23,L15)</f>
+        <v>111111</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="20"/>
+        <v>2222</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="20"/>
+        <v>33333</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="20"/>
+        <v>rr</v>
+      </c>
+    </row>
+    <row r="26" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="L26" t="str">
+        <f t="shared" ref="L26:S26" si="21">REPT(L$23,L16)</f>
+        <v>11</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="21"/>
+        <v>222222</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="21"/>
+        <v>3333</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="21"/>
+        <v>444</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="21"/>
+        <v>555</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="21"/>
+        <v>rrr</v>
+      </c>
+    </row>
+    <row r="27" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="L27" t="str">
+        <f t="shared" ref="L27:S27" si="22">REPT(L$23,L17)</f>
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="22"/>
+        <v>222</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="22"/>
+        <v>33333333</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="22"/>
+        <v>444</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="22"/>
+        <v>5555</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="22"/>
+        <v>r</v>
+      </c>
+    </row>
+    <row r="28" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="L28" t="str">
+        <f t="shared" ref="L28:S28" si="23">REPT(L$23,L18)</f>
+        <v>111</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="23"/>
+        <v>333</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="23"/>
+        <v>4444</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="23"/>
+        <v>55555</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="23"/>
+        <v>66</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="23"/>
+        <v>rr</v>
+      </c>
+    </row>
+    <row r="29" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="L29" t="str">
+        <f t="shared" ref="L29:S29" si="24">REPT(L$23,L19)</f>
+        <v>1</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="24"/>
+        <v>5555555555</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="24"/>
+        <v>6666</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="24"/>
+        <v>77</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="24"/>
+        <v>r</v>
+      </c>
+    </row>
+    <row r="30" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="L30" t="str">
+        <f t="shared" ref="L30:S30" si="25">REPT(L$23,L20)</f>
+        <v>11111111</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="25"/>
+        <v>22</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="25"/>
+        <v>66666</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="25"/>
+        <v>77</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="25"/>
+        <v>r</v>
+      </c>
+    </row>
+    <row r="31" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="L31" t="str">
+        <f t="shared" ref="L31:S31" si="26">REPT(L$23,L21)</f>
+        <v>1111</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="26"/>
+        <v>22</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="26"/>
+        <v>3333</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="26"/>
+        <v>44</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="26"/>
+        <v>5555555</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="26"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/scripts/PITCH-DISTRIBUTION.xlsx
+++ b/scripts/PITCH-DISTRIBUTION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\University\MSc_1\MindTech&amp;Music\project-repo\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52EA644-320E-4515-8B07-D767C00605CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A726AC-4839-4840-B71F-012E482A6C82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74236B08-9CBF-44B4-B13F-946D5CA18EFE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>antecedent</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>normalized</t>
-  </si>
-  <si>
-    <t>r</t>
   </si>
 </sst>
 </file>
@@ -403,7 +400,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="L23" sqref="L23:S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,28 +988,28 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>2</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R13">
-        <v>7</v>
-      </c>
-      <c r="S13" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="S13">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1020,40 +1017,40 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:S14" si="9">ROUND(20*L4,0)</f>
-        <v>4</v>
+        <f>ROUND(96*L4,0)+12</f>
+        <v>32</v>
       </c>
       <c r="M14">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" ref="M14:S14" si="9">ROUND(96*M4,0)+12</f>
+        <v>28</v>
       </c>
       <c r="N14">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="O14">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P14">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q14">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="R14">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="S14">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="T14">
         <f>SUM(L14:S14)</f>
-        <v>19</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1061,40 +1058,40 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:S15" si="10">ROUND(20*L5,0)</f>
-        <v>6</v>
+        <f t="shared" ref="L15:S15" si="10">ROUND(96*L5,0)+12</f>
+        <v>41</v>
       </c>
       <c r="M15">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="O15">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="P15">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Q15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R15">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="S15">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="T15">
-        <f t="shared" ref="T15:T26" si="11">SUM(L15:S15)</f>
-        <v>20</v>
+        <f t="shared" ref="T15:T21" si="11">SUM(L15:S15)</f>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1102,40 +1099,40 @@
         <v>3</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:S16" si="12">ROUND(20*L6,0)</f>
-        <v>2</v>
+        <f t="shared" ref="L16:S16" si="12">ROUND(96*L6,0)+12</f>
+        <v>21</v>
       </c>
       <c r="M16">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="O16">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="P16">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q16">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R16">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S16">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="T16">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="11:20" x14ac:dyDescent="0.25">
@@ -1143,40 +1140,40 @@
         <v>4</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:S17" si="13">ROUND(20*L7,0)</f>
-        <v>0</v>
+        <f t="shared" ref="L17:S17" si="13">ROUND(96*L7,0)+12</f>
+        <v>13</v>
       </c>
       <c r="M17">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="N17">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="O17">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="P17">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="Q17">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R17">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S17">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="T17">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="11:20" x14ac:dyDescent="0.25">
@@ -1184,40 +1181,40 @@
         <v>5</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:S18" si="14">ROUND(20*L8,0)</f>
-        <v>3</v>
+        <f t="shared" ref="L18:S18" si="14">ROUND(96*L8,0)+12</f>
+        <v>25</v>
       </c>
       <c r="M18">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="O18">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="P18">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="Q18">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="R18">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S18">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="T18">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="11:20" x14ac:dyDescent="0.25">
@@ -1225,40 +1222,40 @@
         <v>6</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:S19" si="15">ROUND(20*L9,0)</f>
-        <v>1</v>
+        <f t="shared" ref="L19:S19" si="15">ROUND(96*L9,0)+12</f>
+        <v>15</v>
       </c>
       <c r="M19">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O19">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="P19">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="Q19">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="R19">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="S19">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="T19">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="11:20" x14ac:dyDescent="0.25">
@@ -1266,40 +1263,40 @@
         <v>7</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:S20" si="16">ROUND(20*L10,0)</f>
-        <v>8</v>
+        <f t="shared" ref="L20:S20" si="16">ROUND(96*L10,0)+12</f>
+        <v>51</v>
       </c>
       <c r="M20">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O20">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P20">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Q20">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="R20">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="S20">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="T20">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="11:20" x14ac:dyDescent="0.25">
@@ -1307,342 +1304,342 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <f>ROUND(20*L11,0)</f>
-        <v>4</v>
+        <f t="shared" ref="L21:S21" si="17">ROUND(96*L11,0)+12</f>
+        <v>33</v>
       </c>
       <c r="M21">
-        <f t="shared" ref="M21:S21" si="17">ROUND(20*M11,0)</f>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>23</v>
       </c>
       <c r="N21">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="O21">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="P21">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="Q21">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="R21">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S21">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T21">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="11:20" x14ac:dyDescent="0.25">
       <c r="L23" t="str">
-        <f>TEXT(L13,"#")</f>
-        <v>1</v>
+        <f>REPT(TEXT(L$13,"0")&amp;" ",L14)</f>
+        <v xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 </v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" ref="M23:S23" si="18">TEXT(M13,"#")</f>
-        <v>2</v>
+        <f t="shared" ref="M23:S23" si="18">REPT(TEXT(M$13,"0")&amp;" ",M14)</f>
+        <v xml:space="preserve">2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 </v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v xml:space="preserve">4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 </v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v xml:space="preserve">5 5 5 5 5 5 5 5 5 5 5 5 5 </v>
       </c>
       <c r="P23" t="str">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v xml:space="preserve">7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 </v>
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="18"/>
-        <v>6</v>
+        <v xml:space="preserve">9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 </v>
       </c>
       <c r="R23" t="str">
         <f t="shared" si="18"/>
-        <v>7</v>
+        <v xml:space="preserve">11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 </v>
       </c>
       <c r="S23" t="str">
         <f t="shared" si="18"/>
-        <v>r</v>
+        <v xml:space="preserve">13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 </v>
       </c>
     </row>
     <row r="24" spans="11:20" x14ac:dyDescent="0.25">
       <c r="L24" t="str">
-        <f>REPT(L$23,L14)</f>
-        <v>1111</v>
+        <f t="shared" ref="L24:S24" si="19">REPT(TEXT(L$13,"0")&amp;" ",L15)</f>
+        <v xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 </v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" ref="M24:S24" si="19">REPT(M$23,M14)</f>
-        <v>222</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 </v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="19"/>
-        <v>33</v>
+        <v xml:space="preserve">4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 </v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v xml:space="preserve">5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 </v>
       </c>
       <c r="P24" t="str">
         <f t="shared" si="19"/>
-        <v>55</v>
+        <v xml:space="preserve">7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 </v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v xml:space="preserve">9 9 9 9 9 9 9 9 9 9 9 9 9 </v>
       </c>
       <c r="R24" t="str">
         <f t="shared" si="19"/>
-        <v>777</v>
+        <v xml:space="preserve">11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 </v>
       </c>
       <c r="S24" t="str">
         <f t="shared" si="19"/>
-        <v>rrrr</v>
+        <v xml:space="preserve">13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 </v>
       </c>
     </row>
     <row r="25" spans="11:20" x14ac:dyDescent="0.25">
       <c r="L25" t="str">
-        <f t="shared" ref="L25:S25" si="20">REPT(L$23,L15)</f>
-        <v>111111</v>
+        <f t="shared" ref="L25:S25" si="20">REPT(TEXT(L$13,"0")&amp;" ",L16)</f>
+        <v xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 </v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="20"/>
-        <v>2222</v>
+        <v xml:space="preserve">2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 </v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="20"/>
-        <v>33333</v>
+        <v xml:space="preserve">4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 </v>
       </c>
       <c r="O25" t="str">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v xml:space="preserve">5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 </v>
       </c>
       <c r="P25" t="str">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v xml:space="preserve">7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 </v>
       </c>
       <c r="Q25" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v xml:space="preserve">9 9 9 9 9 9 9 9 9 9 9 9 9 9 </v>
       </c>
       <c r="R25" t="str">
         <f t="shared" si="20"/>
-        <v>7</v>
+        <v xml:space="preserve">11 11 11 11 11 11 11 11 11 11 11 11 </v>
       </c>
       <c r="S25" t="str">
         <f t="shared" si="20"/>
-        <v>rr</v>
+        <v xml:space="preserve">13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 </v>
       </c>
     </row>
     <row r="26" spans="11:20" x14ac:dyDescent="0.25">
       <c r="L26" t="str">
-        <f t="shared" ref="L26:S26" si="21">REPT(L$23,L16)</f>
-        <v>11</v>
+        <f t="shared" ref="L26:S26" si="21">REPT(TEXT(L$13,"0")&amp;" ",L17)</f>
+        <v xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 </v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="21"/>
-        <v>222222</v>
+        <v xml:space="preserve">2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 </v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="21"/>
-        <v>3333</v>
+        <v xml:space="preserve">4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 </v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="21"/>
-        <v>444</v>
+        <v xml:space="preserve">5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 </v>
       </c>
       <c r="P26" t="str">
         <f t="shared" si="21"/>
-        <v>555</v>
+        <v xml:space="preserve">7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 </v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v xml:space="preserve">9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 </v>
       </c>
       <c r="R26" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v xml:space="preserve">11 11 11 11 11 11 11 11 11 11 11 11 11 </v>
       </c>
       <c r="S26" t="str">
         <f t="shared" si="21"/>
-        <v>rrr</v>
+        <v xml:space="preserve">13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 </v>
       </c>
     </row>
     <row r="27" spans="11:20" x14ac:dyDescent="0.25">
       <c r="L27" t="str">
-        <f t="shared" ref="L27:S27" si="22">REPT(L$23,L17)</f>
-        <v/>
+        <f t="shared" ref="L27:S27" si="22">REPT(TEXT(L$13,"0")&amp;" ",L18)</f>
+        <v xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 </v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="22"/>
-        <v>222</v>
+        <v xml:space="preserve">2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 </v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="22"/>
-        <v>33333333</v>
+        <v xml:space="preserve">4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 </v>
       </c>
       <c r="O27" t="str">
         <f t="shared" si="22"/>
-        <v>444</v>
+        <v xml:space="preserve">5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 </v>
       </c>
       <c r="P27" t="str">
         <f t="shared" si="22"/>
-        <v>5555</v>
+        <v xml:space="preserve">7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 </v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v xml:space="preserve">9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 </v>
       </c>
       <c r="R27" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v xml:space="preserve">11 11 11 11 11 11 11 11 11 11 11 11 11 11 </v>
       </c>
       <c r="S27" t="str">
         <f t="shared" si="22"/>
-        <v>r</v>
+        <v xml:space="preserve">13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 </v>
       </c>
     </row>
     <row r="28" spans="11:20" x14ac:dyDescent="0.25">
       <c r="L28" t="str">
-        <f t="shared" ref="L28:S28" si="23">REPT(L$23,L18)</f>
-        <v>111</v>
+        <f t="shared" ref="L28:S28" si="23">REPT(TEXT(L$13,"0")&amp;" ",L19)</f>
+        <v xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 </v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v xml:space="preserve">2 2 2 2 2 2 2 2 2 2 2 2 2 2 </v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="23"/>
-        <v>333</v>
+        <v xml:space="preserve">4 4 4 4 4 4 4 4 4 4 4 4 4 </v>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="23"/>
-        <v>4444</v>
+        <v xml:space="preserve">5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 </v>
       </c>
       <c r="P28" t="str">
         <f t="shared" si="23"/>
-        <v>55555</v>
+        <v xml:space="preserve">7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 </v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="23"/>
-        <v>66</v>
+        <v xml:space="preserve">9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 </v>
       </c>
       <c r="R28" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v xml:space="preserve">11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 </v>
       </c>
       <c r="S28" t="str">
         <f t="shared" si="23"/>
-        <v>rr</v>
+        <v xml:space="preserve">13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 </v>
       </c>
     </row>
     <row r="29" spans="11:20" x14ac:dyDescent="0.25">
       <c r="L29" t="str">
-        <f t="shared" ref="L29:S29" si="24">REPT(L$23,L19)</f>
-        <v>1</v>
+        <f t="shared" ref="L29:S29" si="24">REPT(TEXT(L$13,"0")&amp;" ",L20)</f>
+        <v xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 </v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v xml:space="preserve">2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 </v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v xml:space="preserve">4 4 4 4 4 4 4 4 4 4 4 4 4 </v>
       </c>
       <c r="O29" t="str">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v xml:space="preserve">5 5 5 5 5 5 5 5 5 5 5 5 5 </v>
       </c>
       <c r="P29" t="str">
         <f t="shared" si="24"/>
-        <v>5555555555</v>
+        <v xml:space="preserve">7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 </v>
       </c>
       <c r="Q29" t="str">
         <f t="shared" si="24"/>
-        <v>6666</v>
+        <v xml:space="preserve">9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 </v>
       </c>
       <c r="R29" t="str">
         <f t="shared" si="24"/>
-        <v>77</v>
+        <v xml:space="preserve">11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 </v>
       </c>
       <c r="S29" t="str">
         <f t="shared" si="24"/>
-        <v>r</v>
+        <v xml:space="preserve">13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 13 </v>
       </c>
     </row>
     <row r="30" spans="11:20" x14ac:dyDescent="0.25">
       <c r="L30" t="str">
-        <f t="shared" ref="L30:S30" si="25">REPT(L$23,L20)</f>
-        <v>11111111</v>
+        <f t="shared" ref="L30:S30" si="25">REPT(TEXT(L$13,"0")&amp;" ",L21)</f>
+        <v xml:space="preserve">0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 </v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="25"/>
-        <v>22</v>
+        <v xml:space="preserve">2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 2 </v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v xml:space="preserve">4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 4 </v>
       </c>
       <c r="O30" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v xml:space="preserve">5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 5 </v>
       </c>
       <c r="P30" t="str">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v xml:space="preserve">7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 7 </v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" si="25"/>
-        <v>66666</v>
+        <v xml:space="preserve">9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 9 </v>
       </c>
       <c r="R30" t="str">
         <f t="shared" si="25"/>
-        <v>77</v>
+        <v xml:space="preserve">11 11 11 11 11 11 11 11 11 11 11 11 11 11 11 </v>
       </c>
       <c r="S30" t="str">
         <f t="shared" si="25"/>
-        <v>r</v>
+        <v xml:space="preserve">13 13 13 13 13 13 13 13 13 13 13 13 </v>
       </c>
     </row>
     <row r="31" spans="11:20" x14ac:dyDescent="0.25">
       <c r="L31" t="str">
-        <f t="shared" ref="L31:S31" si="26">REPT(L$23,L21)</f>
-        <v>1111</v>
+        <f t="shared" ref="L31:S31" si="26">REPT(TEXT(L21,"0")&amp;" ",L22)</f>
+        <v/>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="26"/>
-        <v>22</v>
+        <v/>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="26"/>
-        <v>3333</v>
+        <v/>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="26"/>
-        <v>44</v>
+        <v/>
       </c>
       <c r="P31" t="str">
         <f t="shared" si="26"/>
-        <v>5555555</v>
+        <v/>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="26"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="R31" t="str">
         <f t="shared" si="26"/>
-        <v>7</v>
+        <v/>
       </c>
       <c r="S31" t="str">
         <f t="shared" si="26"/>
